--- a/biology/Médecine/Séroconversion/Séroconversion.xlsx
+++ b/biology/Médecine/Séroconversion/Séroconversion.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>S%C3%A9roconversion</t>
+          <t>Séroconversion</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La séroconversion est la phase d’une maladie infectieuse lors de laquelle les anticorps apparaissent suffisamment dans le sang pour qu’on puisse les doser. La séroconversion, d'une manière générale, concerne toutes les infections qui induisent la fabrication d’anticorps.
 </t>
